--- a/Projet3/AI-II-Projet3-TableauDonnées.xlsx
+++ b/Projet3/AI-II-Projet3-TableauDonnées.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\DEC\3-H2021\Git\420-C62-IN_AI\Projet3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25954A9B-47C7-4370-8A29-68E87EAB9259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7BE97-E744-4B74-AFC3-04766AE891F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -407,19 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -578,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -605,39 +592,28 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -646,10 +622,10 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,7 +639,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -672,6 +648,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2616,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2628,30 +2607,30 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="55" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="57"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="52"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2712,7 +2691,7 @@
       <c r="S3" s="6">
         <v>10</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="56" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2774,127 +2753,145 @@
       <c r="S4" s="13">
         <v>56</v>
       </c>
-      <c r="T4" s="62"/>
+      <c r="T4" s="57"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18">
-        <v>373.82</v>
-      </c>
-      <c r="C5" s="19">
-        <v>195.55</v>
-      </c>
-      <c r="D5" s="20">
-        <v>66.180000000000007</v>
-      </c>
-      <c r="E5" s="21">
-        <v>28.93</v>
-      </c>
-      <c r="F5" s="21">
-        <v>12.39</v>
-      </c>
-      <c r="G5" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="H5" s="23">
-        <v>373.82</v>
-      </c>
-      <c r="I5" s="19">
-        <v>195.55</v>
-      </c>
-      <c r="J5" s="21">
-        <v>65.41</v>
-      </c>
-      <c r="K5" s="21">
-        <v>28.92</v>
-      </c>
-      <c r="L5" s="21">
-        <v>12.45</v>
-      </c>
-      <c r="M5" s="24">
-        <v>7.33</v>
-      </c>
-      <c r="N5" s="25">
-        <v>360.14</v>
-      </c>
-      <c r="O5" s="21">
-        <v>195.55</v>
-      </c>
-      <c r="P5" s="21">
-        <v>65.069999999999993</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>32.4</v>
-      </c>
-      <c r="R5" s="21">
-        <v>12.31</v>
-      </c>
-      <c r="S5" s="22">
-        <v>7.13</v>
-      </c>
-      <c r="T5" s="62"/>
+      <c r="B5" s="58">
+        <f>B6/B4</f>
+        <v>382.47087719298247</v>
+      </c>
+      <c r="C5" s="58">
+        <f t="shared" ref="C5:S5" si="0">C6/C4</f>
+        <v>190.48360824742267</v>
+      </c>
+      <c r="D5" s="58">
+        <f t="shared" si="0"/>
+        <v>69.886301369863006</v>
+      </c>
+      <c r="E5" s="58">
+        <f t="shared" si="0"/>
+        <v>29.271418918918918</v>
+      </c>
+      <c r="F5" s="58">
+        <f t="shared" si="0"/>
+        <v>12.702123893805309</v>
+      </c>
+      <c r="G5" s="58">
+        <f t="shared" si="0"/>
+        <v>7.310806451612903</v>
+      </c>
+      <c r="H5" s="58">
+        <f t="shared" si="0"/>
+        <v>382.47087719298247</v>
+      </c>
+      <c r="I5" s="58">
+        <f t="shared" si="0"/>
+        <v>190.48360824742267</v>
+      </c>
+      <c r="J5" s="58">
+        <f t="shared" si="0"/>
+        <v>66.028482142857143</v>
+      </c>
+      <c r="K5" s="58">
+        <f t="shared" si="0"/>
+        <v>29.088409090909092</v>
+      </c>
+      <c r="L5" s="58">
+        <f t="shared" si="0"/>
+        <v>12.652051282051282</v>
+      </c>
+      <c r="M5" s="58">
+        <f t="shared" si="0"/>
+        <v>7.393372093023256</v>
+      </c>
+      <c r="N5" s="58">
+        <f t="shared" si="0"/>
+        <v>365.2339344262295</v>
+      </c>
+      <c r="O5" s="58">
+        <f t="shared" si="0"/>
+        <v>190.48360824742267</v>
+      </c>
+      <c r="P5" s="58">
+        <f t="shared" si="0"/>
+        <v>66.005306122448985</v>
+      </c>
+      <c r="Q5" s="58">
+        <f t="shared" si="0"/>
+        <v>30.244974874371859</v>
+      </c>
+      <c r="R5" s="58">
+        <f t="shared" si="0"/>
+        <v>12.707534246575342</v>
+      </c>
+      <c r="S5" s="58">
+        <f t="shared" si="0"/>
+        <v>7.3591071428571428</v>
+      </c>
+      <c r="T5" s="57"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="22">
         <v>21800.84</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="23">
         <v>18476.91</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="24">
         <v>10203.4</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>4332.17</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>1435.34</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="26">
         <v>453.27</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="27">
         <v>21800.84</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="23">
         <v>18476.91</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="25">
         <v>7395.19</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="25">
         <v>3839.67</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <v>986.86</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="28">
         <v>635.83000000000004</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="29">
         <v>22279.27</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="25">
         <v>18476.91</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="25">
         <v>6468.52</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="25">
         <v>6018.75</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="25">
         <v>927.65</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="26">
         <v>412.11</v>
       </c>
-      <c r="T6" s="62"/>
+      <c r="T6" s="57"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N7" s="4">
@@ -2909,7 +2906,7 @@
       <c r="S7" s="6">
         <v>10</v>
       </c>
-      <c r="T7" s="61" t="s">
+      <c r="T7" s="56" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2926,158 +2923,158 @@
       <c r="S8" s="13">
         <v>79</v>
       </c>
-      <c r="T8" s="62"/>
+      <c r="T8" s="57"/>
     </row>
     <row r="9" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="N9" s="25">
+      <c r="N9" s="20">
         <v>360.25</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18">
         <v>68.5</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19">
         <v>8.14</v>
       </c>
-      <c r="T9" s="62"/>
+      <c r="T9" s="57"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="N10" s="34">
+      <c r="N10" s="29">
         <v>28050.65</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30">
+      <c r="O10" s="25"/>
+      <c r="P10" s="25">
         <v>6182.26</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26">
         <v>595.35</v>
       </c>
-      <c r="T10" s="62"/>
+      <c r="T10" s="57"/>
     </row>
     <row r="14" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="30"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="31">
         <v>500</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="32">
         <v>250</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="32">
         <v>100</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="32">
         <v>50</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="32">
         <v>20</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="40">
-        <f t="shared" ref="B19:G19" si="0">(B4+H4+N4)/3</f>
+      <c r="B19" s="35">
+        <f t="shared" ref="B19:G19" si="1">(B4+H4+N4)/3</f>
         <v>58.333333333333336</v>
       </c>
-      <c r="C19" s="41">
-        <f t="shared" si="0"/>
+      <c r="C19" s="36">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D19" s="41">
-        <f t="shared" si="0"/>
+      <c r="D19" s="36">
+        <f t="shared" si="1"/>
         <v>118.66666666666667</v>
       </c>
-      <c r="E19" s="41">
-        <f t="shared" si="0"/>
+      <c r="E19" s="36">
+        <f t="shared" si="1"/>
         <v>159.66666666666666</v>
       </c>
-      <c r="F19" s="41">
-        <f t="shared" si="0"/>
+      <c r="F19" s="36">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G19" s="42">
-        <f t="shared" si="0"/>
+      <c r="G19" s="37">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="44">
-        <f t="shared" ref="B20:G20" si="1">(B5+H5+N5)/3</f>
-        <v>369.26</v>
-      </c>
-      <c r="C20" s="45">
-        <f t="shared" si="1"/>
-        <v>195.55000000000004</v>
-      </c>
-      <c r="D20" s="45">
-        <f t="shared" si="1"/>
-        <v>65.553333333333327</v>
-      </c>
-      <c r="E20" s="45">
-        <f t="shared" si="1"/>
-        <v>30.083333333333332</v>
-      </c>
-      <c r="F20" s="45">
-        <f t="shared" si="1"/>
-        <v>12.383333333333333</v>
-      </c>
-      <c r="G20" s="46">
-        <f t="shared" si="1"/>
-        <v>7.22</v>
+      <c r="B20" s="39">
+        <f t="shared" ref="B20:G20" si="2">(B5+H5+N5)/3</f>
+        <v>376.72522960406485</v>
+      </c>
+      <c r="C20" s="40">
+        <f t="shared" si="2"/>
+        <v>190.48360824742267</v>
+      </c>
+      <c r="D20" s="40">
+        <f t="shared" si="2"/>
+        <v>67.306696545056369</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="2"/>
+        <v>29.53493429473329</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="2"/>
+        <v>12.687236474143978</v>
+      </c>
+      <c r="G20" s="41">
+        <f t="shared" si="2"/>
+        <v>7.354428562497767</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="48">
-        <f t="shared" ref="B21:G21" si="2">(B6+H6+N6)/3</f>
+      <c r="B21" s="43">
+        <f t="shared" ref="B21:G21" si="3">(B6+H6+N6)/3</f>
         <v>21960.316666666666</v>
       </c>
-      <c r="C21" s="49">
-        <f t="shared" si="2"/>
+      <c r="C21" s="44">
+        <f t="shared" si="3"/>
         <v>18476.91</v>
       </c>
-      <c r="D21" s="49">
-        <f t="shared" si="2"/>
+      <c r="D21" s="44">
+        <f t="shared" si="3"/>
         <v>8022.37</v>
       </c>
-      <c r="E21" s="49">
-        <f t="shared" si="2"/>
+      <c r="E21" s="44">
+        <f t="shared" si="3"/>
         <v>4730.1966666666667</v>
       </c>
-      <c r="F21" s="49">
-        <f t="shared" si="2"/>
+      <c r="F21" s="44">
+        <f t="shared" si="3"/>
         <v>1116.6166666666666</v>
       </c>
-      <c r="G21" s="50">
-        <f t="shared" si="2"/>
+      <c r="G21" s="45">
+        <f t="shared" si="3"/>
         <v>500.40333333333336</v>
       </c>
     </row>

--- a/Projet3/AI-II-Projet3-TableauDonnées.xlsx
+++ b/Projet3/AI-II-Projet3-TableauDonnées.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\DEC\3-H2021\Git\420-C62-IN_AI\Projet3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Donnees-megadonnees-AI-2\Projet\420-C62-IN_AI\Projet3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7BE97-E744-4B74-AFC3-04766AE891F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C050FA3-4AE5-497C-9476-75E5064A8187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,18 +112,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -580,15 +580,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,33 +595,32 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,7 +634,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -648,7 +643,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -777,7 +777,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -854,7 +854,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -904,7 +904,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58.333333333333336</c:v>
+                  <c:v>59.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +981,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1031,7 +1031,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1093,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1206,7 +1206,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1319,7 +1319,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1432,7 +1432,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1572,7 +1572,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1668,7 +1668,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1700,7 +1700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="822135023"/>
@@ -1752,7 +1752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1789,7 +1789,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2596,7 +2596,7 @@
   <dimension ref="A2:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2607,30 +2607,30 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="50" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
       <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
       <c r="S3" s="6">
         <v>10</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="53" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2702,196 +2702,196 @@
       <c r="B4" s="9">
         <v>57</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="56">
+        <v>110</v>
+      </c>
+      <c r="D4" s="10">
+        <v>146</v>
+      </c>
+      <c r="E4" s="11">
+        <v>148</v>
+      </c>
+      <c r="F4" s="11">
+        <v>113</v>
+      </c>
+      <c r="G4" s="12">
+        <v>62</v>
+      </c>
+      <c r="H4" s="57">
+        <v>61</v>
+      </c>
+      <c r="I4" s="56">
+        <v>114</v>
+      </c>
+      <c r="J4" s="11">
+        <v>112</v>
+      </c>
+      <c r="K4" s="11">
+        <v>132</v>
+      </c>
+      <c r="L4" s="11">
+        <v>78</v>
+      </c>
+      <c r="M4" s="13">
+        <v>86</v>
+      </c>
+      <c r="N4" s="14">
+        <v>61</v>
+      </c>
+      <c r="O4" s="11">
         <v>97</v>
       </c>
-      <c r="D4" s="11">
-        <v>146</v>
-      </c>
-      <c r="E4" s="12">
-        <v>148</v>
-      </c>
-      <c r="F4" s="12">
-        <v>113</v>
-      </c>
-      <c r="G4" s="13">
-        <v>62</v>
-      </c>
-      <c r="H4" s="14">
-        <v>57</v>
-      </c>
-      <c r="I4" s="10">
-        <v>97</v>
-      </c>
-      <c r="J4" s="12">
-        <v>112</v>
-      </c>
-      <c r="K4" s="12">
-        <v>132</v>
-      </c>
-      <c r="L4" s="12">
-        <v>78</v>
-      </c>
-      <c r="M4" s="15">
-        <v>86</v>
-      </c>
-      <c r="N4" s="16">
-        <v>61</v>
-      </c>
-      <c r="O4" s="12">
-        <v>97</v>
-      </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>98</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>199</v>
       </c>
-      <c r="R4" s="12">
+      <c r="R4" s="11">
         <v>73</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="12">
         <v>56</v>
       </c>
-      <c r="T4" s="57"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="42">
         <f>B6/B4</f>
         <v>382.47087719298247</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="42">
         <f t="shared" ref="C5:S5" si="0">C6/C4</f>
-        <v>190.48360824742267</v>
-      </c>
-      <c r="D5" s="58">
+        <v>179.63781818181818</v>
+      </c>
+      <c r="D5" s="42">
         <f t="shared" si="0"/>
         <v>69.886301369863006</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>29.271418918918918</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="42">
         <f t="shared" si="0"/>
         <v>12.702123893805309</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="42">
         <f t="shared" si="0"/>
         <v>7.310806451612903</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="42">
         <f t="shared" si="0"/>
-        <v>382.47087719298247</v>
-      </c>
-      <c r="I5" s="58">
+        <v>400.71000000000004</v>
+      </c>
+      <c r="I5" s="42">
+        <f t="shared" si="0"/>
+        <v>171.45842105263156</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="0"/>
+        <v>66.028482142857143</v>
+      </c>
+      <c r="K5" s="42">
+        <f t="shared" si="0"/>
+        <v>29.088409090909092</v>
+      </c>
+      <c r="L5" s="42">
+        <f t="shared" si="0"/>
+        <v>12.652051282051282</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" si="0"/>
+        <v>7.393372093023256</v>
+      </c>
+      <c r="N5" s="42">
+        <f t="shared" si="0"/>
+        <v>365.2339344262295</v>
+      </c>
+      <c r="O5" s="42">
         <f t="shared" si="0"/>
         <v>190.48360824742267</v>
       </c>
-      <c r="J5" s="58">
-        <f t="shared" si="0"/>
-        <v>66.028482142857143</v>
-      </c>
-      <c r="K5" s="58">
-        <f t="shared" si="0"/>
-        <v>29.088409090909092</v>
-      </c>
-      <c r="L5" s="58">
-        <f t="shared" si="0"/>
-        <v>12.652051282051282</v>
-      </c>
-      <c r="M5" s="58">
-        <f t="shared" si="0"/>
-        <v>7.393372093023256</v>
-      </c>
-      <c r="N5" s="58">
-        <f t="shared" si="0"/>
-        <v>365.2339344262295</v>
-      </c>
-      <c r="O5" s="58">
-        <f t="shared" si="0"/>
-        <v>190.48360824742267</v>
-      </c>
-      <c r="P5" s="58">
+      <c r="P5" s="42">
         <f t="shared" si="0"/>
         <v>66.005306122448985</v>
       </c>
-      <c r="Q5" s="58">
+      <c r="Q5" s="42">
         <f t="shared" si="0"/>
         <v>30.244974874371859</v>
       </c>
-      <c r="R5" s="58">
+      <c r="R5" s="42">
         <f t="shared" si="0"/>
         <v>12.707534246575342</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="42">
         <f t="shared" si="0"/>
         <v>7.3591071428571428</v>
       </c>
-      <c r="T5" s="57"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>21800.84</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="55">
+        <v>19760.16</v>
+      </c>
+      <c r="D6" s="21">
+        <v>10203.4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4332.17</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1435.34</v>
+      </c>
+      <c r="G6" s="23">
+        <v>453.27</v>
+      </c>
+      <c r="H6" s="58">
+        <v>24443.31</v>
+      </c>
+      <c r="I6" s="55">
+        <v>19546.259999999998</v>
+      </c>
+      <c r="J6" s="22">
+        <v>7395.19</v>
+      </c>
+      <c r="K6" s="22">
+        <v>3839.67</v>
+      </c>
+      <c r="L6" s="22">
+        <v>986.86</v>
+      </c>
+      <c r="M6" s="24">
+        <v>635.83000000000004</v>
+      </c>
+      <c r="N6" s="25">
+        <v>22279.27</v>
+      </c>
+      <c r="O6" s="22">
         <v>18476.91</v>
       </c>
-      <c r="D6" s="24">
-        <v>10203.4</v>
-      </c>
-      <c r="E6" s="25">
-        <v>4332.17</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1435.34</v>
-      </c>
-      <c r="G6" s="26">
-        <v>453.27</v>
-      </c>
-      <c r="H6" s="27">
-        <v>21800.84</v>
-      </c>
-      <c r="I6" s="23">
-        <v>18476.91</v>
-      </c>
-      <c r="J6" s="25">
-        <v>7395.19</v>
-      </c>
-      <c r="K6" s="25">
-        <v>3839.67</v>
-      </c>
-      <c r="L6" s="25">
-        <v>986.86</v>
-      </c>
-      <c r="M6" s="28">
-        <v>635.83000000000004</v>
-      </c>
-      <c r="N6" s="29">
-        <v>22279.27</v>
-      </c>
-      <c r="O6" s="25">
-        <v>18476.91</v>
-      </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>6468.52</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>6018.75</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <v>927.65</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="23">
         <v>412.11</v>
       </c>
-      <c r="T6" s="57"/>
+      <c r="T6" s="54"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N7" s="4">
@@ -2906,174 +2906,174 @@
       <c r="S7" s="6">
         <v>10</v>
       </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <v>76</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11">
         <v>84</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12">
         <v>79</v>
       </c>
-      <c r="T8" s="57"/>
+      <c r="T8" s="54"/>
     </row>
     <row r="9" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="N9" s="20">
+      <c r="N9" s="18">
         <v>360.25</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>68.5</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17">
         <v>8.14</v>
       </c>
-      <c r="T9" s="57"/>
+      <c r="T9" s="54"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="N10" s="29">
+      <c r="N10" s="25">
         <v>28050.65</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25">
+      <c r="O10" s="22"/>
+      <c r="P10" s="22">
         <v>6182.26</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23">
         <v>595.35</v>
       </c>
-      <c r="T10" s="57"/>
+      <c r="T10" s="54"/>
     </row>
     <row r="14" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="27">
         <v>500</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="28">
         <v>250</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="28">
         <v>100</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="28">
         <v>50</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="28">
         <v>20</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="31">
         <f t="shared" ref="B19:G19" si="1">(B4+H4+N4)/3</f>
-        <v>58.333333333333336</v>
-      </c>
-      <c r="C19" s="36">
+        <v>59.666666666666664</v>
+      </c>
+      <c r="C19" s="32">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="D19" s="36">
+        <v>107</v>
+      </c>
+      <c r="D19" s="32">
         <f t="shared" si="1"/>
         <v>118.66666666666667</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="32">
         <f t="shared" si="1"/>
         <v>159.66666666666666</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="32">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="33">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="35">
         <f t="shared" ref="B20:G20" si="2">(B5+H5+N5)/3</f>
-        <v>376.72522960406485</v>
-      </c>
-      <c r="C20" s="40">
+        <v>382.80493720640402</v>
+      </c>
+      <c r="C20" s="36">
         <f t="shared" si="2"/>
-        <v>190.48360824742267</v>
-      </c>
-      <c r="D20" s="40">
+        <v>180.52661582729081</v>
+      </c>
+      <c r="D20" s="36">
         <f t="shared" si="2"/>
         <v>67.306696545056369</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="36">
         <f t="shared" si="2"/>
         <v>29.53493429473329</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="36">
         <f t="shared" si="2"/>
         <v>12.687236474143978</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="37">
         <f t="shared" si="2"/>
         <v>7.354428562497767</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="39">
         <f t="shared" ref="B21:G21" si="3">(B6+H6+N6)/3</f>
-        <v>21960.316666666666</v>
-      </c>
-      <c r="C21" s="44">
+        <v>22841.14</v>
+      </c>
+      <c r="C21" s="40">
         <f t="shared" si="3"/>
-        <v>18476.91</v>
-      </c>
-      <c r="D21" s="44">
+        <v>19261.11</v>
+      </c>
+      <c r="D21" s="40">
         <f t="shared" si="3"/>
         <v>8022.37</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="40">
         <f t="shared" si="3"/>
         <v>4730.1966666666667</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="40">
         <f t="shared" si="3"/>
         <v>1116.6166666666666</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="41">
         <f t="shared" si="3"/>
         <v>500.40333333333336</v>
       </c>
